--- a/models/table_b3-3.xlsx
+++ b/models/table_b3-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -106,31 +106,70 @@
     <t xml:space="preserve">PanelOLS       </t>
   </si>
   <si>
-    <t xml:space="preserve">1797           </t>
+    <t xml:space="preserve">1808           </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered      </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4725         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2142         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3560         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">397.25         </t>
+    <t xml:space="preserve">0.4657         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2366         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3489         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">388.75         </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000         </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0458***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0019)       </t>
+    <t xml:space="preserve">0.0459***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0020)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0576         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0547)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1576***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0608)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0979         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0679)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3284***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1076)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4667         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2430         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3522         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">259.88         </t>
   </si>
   <si>
     <t xml:space="preserve">0.0544         </t>
@@ -139,322 +178,280 @@
     <t xml:space="preserve">(0.0551)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.1652***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0568)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0971         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0659)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3283***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1055)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4735         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2219         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3597         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">265.55         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0457***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0512         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0557)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1675***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0570)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0953         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0649)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3334***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0073         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0148)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0180         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0132)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8028         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9700         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8777         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1029.9         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0429***      </t>
+    <t xml:space="preserve">0.1598***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0611)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0963         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0669)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3335***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1074)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0063         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0166)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0183         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0134)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7939         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9636         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8720         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">980.29         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0438***      </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0005)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0242*        </t>
+    <t xml:space="preserve">0.0247*        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0142)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0268         </t>
+    <t xml:space="preserve">0.0262         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0184)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0149)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0687***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0250)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0020         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0100)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0016         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0056)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7885***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0509)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8073         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9044         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8519         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">932.39         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0431***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0008)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0126        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0176)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0221         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0138)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0661***      </t>
+    <t xml:space="preserve">0.0115         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0232)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0076        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0152)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0231         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0262)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0070         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0099)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0022         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0068)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6936***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0533)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1455***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0299)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8023         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9369         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8643         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">903.09         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0434***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0006)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0009        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0156)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0343*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0208)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0053         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0147)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0381         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0247)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.454e-05      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0070)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7336***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0517)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0889***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8051         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9211         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8584         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">919.15         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0433***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0007)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0079        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0167)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0256         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0220)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0016        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0151)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0293         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0248)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0020         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0105)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0012         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0053)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7964***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0495)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8152         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9083         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8592         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">975.78         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0423***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0007)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0119        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0173)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0136         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0222)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0069        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0140)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0224         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0263)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0069         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0099)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0018         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0066)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7054***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0514)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1385***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0284)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8102         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9433         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8709         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">944.64         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0425***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0006)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.46e-05       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0153)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0348*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0201)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0055         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0135)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0372         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0052         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0103)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0003        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0067)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7459***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0505)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0830***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0199)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8129         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9266         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8656         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">961.24         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0424***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0070        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0163)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0269         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0211)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0010        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0286         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0249)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0062         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0100)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0004         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0068)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7249***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0507)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1129***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0239)       </t>
+    <t xml:space="preserve">(0.0098)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0008         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0071)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7125***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0521)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1198***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0251)       </t>
   </si>
 </sst>
 </file>
@@ -953,7 +950,7 @@
         <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -976,7 +973,7 @@
         <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -999,7 +996,7 @@
         <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1022,7 +1019,7 @@
         <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1045,7 +1042,7 @@
         <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1079,7 +1076,7 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -1091,7 +1088,7 @@
         <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1114,7 +1111,7 @@
         <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1125,7 +1122,7 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
         <v>70</v>
@@ -1137,7 +1134,7 @@
         <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1148,7 +1145,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>71</v>
@@ -1160,7 +1157,7 @@
         <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1171,7 +1168,7 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
         <v>72</v>
@@ -1183,7 +1180,7 @@
         <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1194,7 +1191,7 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
         <v>73</v>
@@ -1206,7 +1203,7 @@
         <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1217,7 +1214,7 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>74</v>
@@ -1229,7 +1226,7 @@
         <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1240,7 +1237,7 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -1252,7 +1249,7 @@
         <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1263,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
@@ -1286,7 +1283,7 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>77</v>
@@ -1295,7 +1292,7 @@
         <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
         <v>138</v>
@@ -1318,10 +1315,10 @@
         <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G22" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1341,10 +1338,10 @@
         <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="G23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1364,10 +1361,10 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1387,10 +1384,10 @@
         <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1410,10 +1407,10 @@
         <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1433,10 +1430,10 @@
         <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1502,7 +1499,7 @@
         <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
         <v>47</v>
@@ -1525,7 +1522,7 @@
         <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G31" t="s">
         <v>47</v>
@@ -1551,7 +1548,7 @@
         <v>47</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1574,7 +1571,7 @@
         <v>47</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_b3-3.xlsx
+++ b/models/table_b3-3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="187">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -70,16 +70,19 @@
     <t xml:space="preserve">const                  </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_suffrage          </t>
+    <t xml:space="preserve">l_sy_gdp               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_lifeex            </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_urban             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_gdp               </t>
+    <t xml:space="preserve">l_sy_trnsprnt          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_brcrcy            </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_war               </t>
@@ -91,6 +94,15 @@
     <t xml:space="preserve">l_sy_model             </t>
   </si>
   <si>
+    <t xml:space="preserve">1860                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:nat               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:sci               </t>
+  </si>
+  <si>
     <t xml:space="preserve">l_wy_nat_world         </t>
   </si>
   <si>
@@ -106,352 +118,463 @@
     <t xml:space="preserve">PanelOLS       </t>
   </si>
   <si>
-    <t xml:space="preserve">1808           </t>
+    <t xml:space="preserve">2041           </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered      </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4657         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2366         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3489         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">388.75         </t>
+    <t xml:space="preserve">0.6746         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5677         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6247         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">835.49         </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000         </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0459***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0020)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0576         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0547)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1576***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0608)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0979         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0679)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3284***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1076)       </t>
+    <t xml:space="preserve">0.0587***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0027)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2573*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1375)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3191***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1033)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1067**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0532)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1082         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0694)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1056         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0979)       </t>
   </si>
   <si>
     <t xml:space="preserve">               </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4667         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2430         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3522         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">259.88         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0544         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0551)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1598***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0611)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0963         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0669)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3335***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1074)       </t>
+    <t xml:space="preserve">0.6762         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5863         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6325         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">600.66         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0586***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2582*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1367)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3194***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1032)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1096**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0529)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1124         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0697)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0982         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1003)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0338**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0132)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0101         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0076)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9090         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9914         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9383         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1823.4         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0574***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0007)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0420*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0224)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0455**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0195)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0207         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0168)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0081         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0136)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0128         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0135)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0058         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0089)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0023        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0047)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8615***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0319)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1053         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0680)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0443         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0469)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1840*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1039)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9155         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9550         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9283         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1811.9         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0568***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0008)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0097         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0225)       </t>
   </si>
   <si>
     <t xml:space="preserve">0.0063         </t>
   </si>
   <si>
+    <t xml:space="preserve">(0.0087)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0183         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0220)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0021        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0176)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0054        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0158)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0132         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0086)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0050        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0056)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7397***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0483)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0905         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0665)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0589         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0454)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1974**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0998)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1610***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0315)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9146         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9530         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9268         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1791.8         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0589***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0009)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0047         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0213)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0022        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0067)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0008        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0210)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0036         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0157)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0004        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0167)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0079         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0079)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0024        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0059)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7439***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0486)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1111*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0653)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0540         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0443)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1988**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0991)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1784***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0385)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9493         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9260         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1813.3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0578***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0046         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0218)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0011        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0074)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0083         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.05e-05      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0171)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0042        </t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.0166)       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0183         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0134)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7939         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9636         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8720         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">980.29         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0438***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0005)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0247*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0142)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0262         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0184)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0235         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0149)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0687***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0250)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0020         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0100)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0016         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0056)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7885***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0509)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8073         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9044         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8519         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">932.39         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0431***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0008)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0126        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0176)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0115         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0232)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0076        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0152)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0231         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0262)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0070         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0099)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0022         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0068)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6936***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0533)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1455***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0299)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8023         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9369         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8643         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">903.09         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0434***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0006)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0009        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0156)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0343*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0208)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0053         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0147)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0381         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0247)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.454e-05      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0070)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7336***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0517)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0889***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8051         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9211         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.8584         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">919.15         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0433***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0007)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0079        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0167)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0256         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0220)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0016        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0151)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0293         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0248)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0098)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0008         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0071)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7125***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0521)       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1198***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0251)       </t>
+    <t xml:space="preserve">0.0111         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0082)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0038        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0058)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7324***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0495)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0999         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0656)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0575         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0447)       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1991**       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1824***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0368)       </t>
   </si>
 </sst>
 </file>
@@ -809,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,22 +966,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -866,22 +989,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -889,22 +1012,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -912,22 +1035,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -935,22 +1058,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -958,22 +1081,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -981,22 +1104,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1004,22 +1127,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1027,22 +1150,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1050,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1073,22 +1196,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1096,22 +1219,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1119,22 +1242,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1142,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G15" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1165,22 +1288,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1188,22 +1311,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1211,22 +1334,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1234,22 +1357,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,22 +1380,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1280,22 +1403,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,22 +1426,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,22 +1449,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1349,22 +1472,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1372,22 +1495,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>141</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1395,22 +1518,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="G26" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1418,22 +1541,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1441,22 +1564,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1464,22 +1587,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1487,22 +1610,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1510,22 +1633,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1533,22 +1656,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1556,22 +1679,206 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
